--- a/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
+++ b/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="2000" windowWidth="31620" windowHeight="20580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>clause</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>is_override</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -909,6 +912,14 @@
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1058,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
+++ b/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>clause</t>
   </si>
@@ -145,12 +145,6 @@
     <t>Confirm distribution</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -164,6 +158,9 @@
   </si>
   <si>
     <t>is_override</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -816,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -908,7 +905,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -916,10 +913,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1016,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1037,8 +1034,8 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>40</v>
+      <c r="B2" s="26">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1048,8 +1045,8 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>41</v>
+      <c r="B3" s="26">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1086,12 +1083,12 @@
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25">
       <c r="A2" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1099,12 +1096,12 @@
     </row>
     <row r="3" spans="1:4" ht="145">
       <c r="A3" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
+++ b/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1034,7 +1034,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1045,7 +1045,7 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">

--- a/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
+++ b/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1034,7 +1034,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26" t="b">
+      <c r="B2" s="26">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1045,7 +1045,7 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26" t="b">
+      <c r="B3" s="26">
         <v>0</v>
       </c>
       <c r="C3" t="s">

--- a/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
+++ b/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>clause</t>
   </si>
@@ -160,7 +160,13 @@
     <t>is_override</t>
   </si>
   <si>
-    <t>boolean</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>item_description</t>
   </si>
 </sst>
 </file>
@@ -811,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -900,22 +906,30 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1013,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1034,8 +1048,8 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26">
-        <v>1</v>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1045,8 +1059,8 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26">
-        <v>0</v>
+      <c r="B3" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1066,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
+++ b/app/config/tables/distribution/forms/set_is_distributed/set_is_distributed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="choices" sheetId="4" r:id="rId4"/>
     <sheet name="initial" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="252" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>clause</t>
   </si>
@@ -82,24 +82,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>distribution_id</t>
-  </si>
-  <si>
     <t>authorization_id</t>
   </si>
   <si>
     <t>beneficiary_code</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>min_range</t>
-  </si>
-  <si>
-    <t>max_range</t>
-  </si>
-  <si>
     <t>authorization_name</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>item_pack_name</t>
   </si>
   <si>
-    <t>acknowledge_auth</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -167,6 +152,9 @@
   </si>
   <si>
     <t>item_description</t>
+  </si>
+  <si>
+    <t>ranges</t>
   </si>
 </sst>
 </file>
@@ -751,27 +739,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23">
       <c r="A1" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23">
       <c r="A2" s="23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="23">
       <c r="A3" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="24">
         <v>20160805</v>
@@ -780,28 +768,28 @@
     </row>
     <row r="4" spans="1:3" ht="23">
       <c r="A4" s="23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" ht="23">
       <c r="A5" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
       <c r="A6" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="25"/>
     </row>
@@ -817,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -858,23 +846,23 @@
         <v>18</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -882,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -890,7 +878,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -898,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -906,31 +894,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1060,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1080,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1097,12 +1061,12 @@
         <v>5</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25">
       <c r="A2" s="27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1110,12 +1074,12 @@
     </row>
     <row r="3" spans="1:4" ht="145">
       <c r="A3" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
